--- a/Prj_ERROR404/00_Documents/BangChamCong.xlsx
+++ b/Prj_ERROR404/00_Documents/BangChamCong.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Nội dung</t>
   </si>
@@ -103,6 +103,11 @@
     <t>*Hoàn thành phân tích yêu cầu CSDL, Chức năng hệ thống:
 \02_Member\LuanNT\20140907_DatabaseDesign\YeuCauCSDL.xlsx
 *Todo: các chức năng admin, users, clients</t>
+  </si>
+  <si>
+    <t>*Hoàn thành thiết kế CSDL cơ bản (bảng author,book,user…)
+\02_Member\LuanNT\20140911_DatabaseDesign\CSDL.xlsx
+*Todo: mô hình thực thể liên kết, View, Funtions…</t>
   </si>
 </sst>
 </file>
@@ -543,7 +548,7 @@
   <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -709,6 +714,17 @@
       </c>
       <c r="I8" s="15" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="45">
+      <c r="C9" s="3">
+        <v>41952</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="7:7">

--- a/Prj_ERROR404/00_Documents/BangChamCong.xlsx
+++ b/Prj_ERROR404/00_Documents/BangChamCong.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Nội dung</t>
   </si>
@@ -108,6 +108,11 @@
     <t>*Hoàn thành thiết kế CSDL cơ bản (bảng author,book,user…)
 \02_Member\LuanNT\20140911_DatabaseDesign\CSDL.xlsx
 *Todo: mô hình thực thể liên kết, View, Funtions…</t>
+  </si>
+  <si>
+    <t>*Cách sử dụng SVN
+*Tổng hợp kiến thức cá nhân mỗi người
+*Kế hoạch tiếp theo</t>
   </si>
 </sst>
 </file>
@@ -547,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="J7" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -725,6 +730,41 @@
       </c>
       <c r="I9" s="15" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="45">
+      <c r="A15" s="3">
+        <v>41982</v>
+      </c>
+      <c r="B15" s="3">
+        <v>41982</v>
+      </c>
+      <c r="C15" s="3">
+        <v>41982</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>41982</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="7:7">

--- a/Prj_ERROR404/00_Documents/BangChamCong.xlsx
+++ b/Prj_ERROR404/00_Documents/BangChamCong.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Nội dung</t>
   </si>
@@ -113,13 +113,22 @@
     <t>*Cách sử dụng SVN
 *Tổng hợp kiến thức cá nhân mỗi người
 *Kế hoạch tiếp theo</t>
+  </si>
+  <si>
+    <t>Dựng CSDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Dựng các bảng CSDL trên Mysql </t>
+  </si>
+  <si>
+    <t>* Hoàn thành dựng khung cơ sở dữ liệu theo như mô hình đã thiết kế</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -206,43 +215,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -308,7 +328,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,9 +360,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,6 +395,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -549,14 +571,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J7" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" style="2" customWidth="1"/>
@@ -569,7 +591,7 @@
     <col min="11" max="11" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -604,7 +626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="8" customFormat="1" ht="120">
+    <row r="2" spans="1:11" s="8" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
@@ -631,7 +653,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" s="8" customFormat="1">
+    <row r="3" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
@@ -650,7 +672,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" s="8" customFormat="1">
+    <row r="4" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -663,7 +685,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="30">
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>41829</v>
       </c>
@@ -698,7 +720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="45">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>41829</v>
       </c>
@@ -721,7 +743,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="45">
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C9" s="3">
         <v>41952</v>
       </c>
@@ -732,7 +754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="45">
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>41982</v>
       </c>
@@ -767,283 +789,309 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="7:7">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>41982</v>
+      </c>
+      <c r="B16" s="3">
+        <v>41982</v>
+      </c>
+      <c r="C16" s="3">
+        <v>41982</v>
+      </c>
+      <c r="D16" s="14">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>41982</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="7:7">
+    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="7:7">
+    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="7:7">
+    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="7:7">
+    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="7:7">
+    <row r="30" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="7:7">
+    <row r="31" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="7:7">
+    <row r="32" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="7:7">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" s="16"/>
     </row>
-    <row r="34" spans="7:7">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="7:7">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G35" s="16"/>
     </row>
-    <row r="36" spans="7:7">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G36" s="16"/>
     </row>
-    <row r="37" spans="7:7">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G37" s="16"/>
     </row>
-    <row r="38" spans="7:7">
+    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="7:7">
+    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G39" s="16"/>
     </row>
-    <row r="40" spans="7:7">
+    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G40" s="16"/>
     </row>
-    <row r="41" spans="7:7">
+    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G41" s="16"/>
     </row>
-    <row r="42" spans="7:7">
+    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G42" s="16"/>
     </row>
-    <row r="43" spans="7:7">
+    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G43" s="16"/>
     </row>
-    <row r="44" spans="7:7">
+    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="7:7">
+    <row r="45" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G45" s="16"/>
     </row>
-    <row r="46" spans="7:7">
+    <row r="46" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G46" s="16"/>
     </row>
-    <row r="47" spans="7:7">
+    <row r="47" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G47" s="16"/>
     </row>
-    <row r="48" spans="7:7">
+    <row r="48" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G48" s="16"/>
     </row>
-    <row r="49" spans="7:7">
+    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G49" s="16"/>
     </row>
-    <row r="50" spans="7:7">
+    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G50" s="16"/>
     </row>
-    <row r="51" spans="7:7">
+    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G51" s="16"/>
     </row>
-    <row r="52" spans="7:7">
+    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G52" s="16"/>
     </row>
-    <row r="53" spans="7:7">
+    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G53" s="16"/>
     </row>
-    <row r="54" spans="7:7">
+    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G54" s="16"/>
     </row>
-    <row r="55" spans="7:7">
+    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G55" s="16"/>
     </row>
-    <row r="56" spans="7:7">
+    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G56" s="16"/>
     </row>
-    <row r="57" spans="7:7">
+    <row r="57" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G57" s="16"/>
     </row>
-    <row r="58" spans="7:7">
+    <row r="58" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G58" s="16"/>
     </row>
-    <row r="59" spans="7:7">
+    <row r="59" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G59" s="16"/>
     </row>
-    <row r="60" spans="7:7">
+    <row r="60" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G60" s="16"/>
     </row>
-    <row r="61" spans="7:7">
+    <row r="61" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G61" s="16"/>
     </row>
-    <row r="62" spans="7:7">
+    <row r="62" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G62" s="16"/>
     </row>
-    <row r="63" spans="7:7">
+    <row r="63" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G63" s="16"/>
     </row>
-    <row r="64" spans="7:7">
+    <row r="64" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G64" s="16"/>
     </row>
-    <row r="65" spans="7:7">
+    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G65" s="16"/>
     </row>
-    <row r="66" spans="7:7">
+    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G66" s="16"/>
     </row>
-    <row r="67" spans="7:7">
+    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G67" s="16"/>
     </row>
-    <row r="68" spans="7:7">
+    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G68" s="16"/>
     </row>
-    <row r="69" spans="7:7">
+    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G69" s="16"/>
     </row>
-    <row r="70" spans="7:7">
+    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G70" s="16"/>
     </row>
-    <row r="71" spans="7:7">
+    <row r="71" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G71" s="16"/>
     </row>
-    <row r="72" spans="7:7">
+    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G72" s="16"/>
     </row>
-    <row r="73" spans="7:7">
+    <row r="73" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G73" s="16"/>
     </row>
-    <row r="74" spans="7:7">
+    <row r="74" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G74" s="16"/>
     </row>
-    <row r="75" spans="7:7">
+    <row r="75" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G75" s="16"/>
     </row>
-    <row r="76" spans="7:7">
+    <row r="76" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G76" s="16"/>
     </row>
-    <row r="77" spans="7:7">
+    <row r="77" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G77" s="16"/>
     </row>
-    <row r="78" spans="7:7">
+    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G78" s="16"/>
     </row>
-    <row r="79" spans="7:7">
+    <row r="79" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G79" s="16"/>
     </row>
-    <row r="80" spans="7:7">
+    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G80" s="16"/>
     </row>
-    <row r="81" spans="7:7">
+    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G81" s="16"/>
     </row>
-    <row r="82" spans="7:7">
+    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G82" s="16"/>
     </row>
-    <row r="83" spans="7:7">
+    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G83" s="16"/>
     </row>
-    <row r="84" spans="7:7">
+    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G84" s="16"/>
     </row>
-    <row r="85" spans="7:7">
+    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G85" s="16"/>
     </row>
-    <row r="86" spans="7:7">
+    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G86" s="16"/>
     </row>
-    <row r="87" spans="7:7">
+    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G87" s="16"/>
     </row>
-    <row r="88" spans="7:7">
+    <row r="88" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G88" s="16"/>
     </row>
-    <row r="89" spans="7:7">
+    <row r="89" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G89" s="16"/>
     </row>
-    <row r="90" spans="7:7">
+    <row r="90" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G90" s="16"/>
     </row>
-    <row r="91" spans="7:7">
+    <row r="91" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G91" s="16"/>
     </row>
-    <row r="92" spans="7:7">
+    <row r="92" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G92" s="16"/>
     </row>
-    <row r="93" spans="7:7">
+    <row r="93" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G93" s="16"/>
     </row>
-    <row r="94" spans="7:7">
+    <row r="94" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G94" s="16"/>
     </row>
-    <row r="95" spans="7:7">
+    <row r="95" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G95" s="16"/>
     </row>
-    <row r="96" spans="7:7">
+    <row r="96" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G96" s="16"/>
     </row>
-    <row r="97" spans="7:7">
+    <row r="97" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G97" s="16"/>
     </row>
-    <row r="98" spans="7:7">
+    <row r="98" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G98" s="16"/>
     </row>
-    <row r="99" spans="7:7">
+    <row r="99" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G99" s="16"/>
     </row>
-    <row r="100" spans="7:7">
+    <row r="100" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G100" s="16"/>
     </row>
-    <row r="101" spans="7:7">
+    <row r="101" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G101" s="16"/>
     </row>
-    <row r="102" spans="7:7">
+    <row r="102" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G102" s="16"/>
     </row>
-    <row r="103" spans="7:7">
+    <row r="103" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G103" s="16"/>
     </row>
-    <row r="104" spans="7:7">
+    <row r="104" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G104" s="16"/>
     </row>
-    <row r="105" spans="7:7">
+    <row r="105" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G105" s="16"/>
     </row>
-    <row r="106" spans="7:7">
+    <row r="106" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G106" s="16"/>
     </row>
-    <row r="107" spans="7:7">
+    <row r="107" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G107" s="16"/>
     </row>
-    <row r="108" spans="7:7">
+    <row r="108" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G108" s="16"/>
     </row>
-    <row r="109" spans="7:7">
+    <row r="109" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G109" s="16"/>
     </row>
-    <row r="110" spans="7:7">
+    <row r="110" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G110" s="16"/>
     </row>
-    <row r="111" spans="7:7">
+    <row r="111" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G111" s="16"/>
     </row>
-    <row r="112" spans="7:7">
+    <row r="112" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G112" s="16"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G113" s="16"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G114" s="16"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G115" s="16"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G116" s="16"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="17"/>
       <c r="B117" s="17"/>
       <c r="C117" s="17"/>
@@ -1066,24 +1114,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Prj_ERROR404/00_Documents/BangChamCong.xlsx
+++ b/Prj_ERROR404/00_Documents/BangChamCong.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Nội dung</t>
   </si>
@@ -122,6 +122,18 @@
   </si>
   <si>
     <t>* Hoàn thành dựng khung cơ sở dữ liệu theo như mô hình đã thiết kế</t>
+  </si>
+  <si>
+    <t>13/9/2014</t>
+  </si>
+  <si>
+    <t>dựng màn hình quản trị</t>
+  </si>
+  <si>
+    <t>xây dựng màn hình quản trị</t>
+  </si>
+  <si>
+    <t>Bùi quốc việt làm</t>
   </si>
 </sst>
 </file>
@@ -575,7 +587,7 @@
   <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,28 +827,42 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G32" s="16"/>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.25">

--- a/Prj_ERROR404/00_Documents/BangChamCong.xlsx
+++ b/Prj_ERROR404/00_Documents/BangChamCong.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Nội dung</t>
   </si>
@@ -134,13 +134,16 @@
   </si>
   <si>
     <t>Bùi quốc việt làm</t>
+  </si>
+  <si>
+    <t>17/9/2014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,34 +239,34 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -340,7 +343,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,10 +375,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,7 +409,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -583,14 +584,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="14.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" style="2" customWidth="1"/>
@@ -603,7 +604,7 @@
     <col min="11" max="11" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -638,7 +639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="8" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="8" customFormat="1" ht="120">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
@@ -665,7 +666,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="8" customFormat="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
@@ -684,7 +685,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="8" customFormat="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -697,7 +698,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="30">
       <c r="A6" s="3">
         <v>41829</v>
       </c>
@@ -732,12 +733,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="45">
       <c r="A8" s="3">
         <v>41829</v>
       </c>
-      <c r="B8" s="3">
-        <v>41829</v>
+      <c r="B8" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C8" s="3">
         <v>41829</v>
@@ -755,7 +756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="45">
       <c r="C9" s="3">
         <v>41952</v>
       </c>
@@ -766,7 +767,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="45">
       <c r="A15" s="3">
         <v>41982</v>
       </c>
@@ -801,7 +802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="3">
         <v>41982</v>
       </c>
@@ -827,7 +828,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -841,283 +842,283 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:7">
       <c r="G33" s="16"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:7">
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:7">
       <c r="G35" s="16"/>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:7">
       <c r="G36" s="16"/>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:7">
       <c r="G37" s="16"/>
     </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:7">
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:7">
       <c r="G39" s="16"/>
     </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:7">
       <c r="G40" s="16"/>
     </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:7">
       <c r="G41" s="16"/>
     </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:7">
       <c r="G42" s="16"/>
     </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:7">
       <c r="G43" s="16"/>
     </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="7:7">
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:7">
       <c r="G45" s="16"/>
     </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:7">
       <c r="G46" s="16"/>
     </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="7:7">
       <c r="G47" s="16"/>
     </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="7:7">
       <c r="G48" s="16"/>
     </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:7">
       <c r="G49" s="16"/>
     </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:7">
       <c r="G50" s="16"/>
     </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:7">
       <c r="G51" s="16"/>
     </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:7">
       <c r="G52" s="16"/>
     </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:7">
       <c r="G53" s="16"/>
     </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:7">
       <c r="G54" s="16"/>
     </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:7">
       <c r="G55" s="16"/>
     </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="7:7">
       <c r="G56" s="16"/>
     </row>
-    <row r="57" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="7:7">
       <c r="G57" s="16"/>
     </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="7:7">
       <c r="G58" s="16"/>
     </row>
-    <row r="59" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="7:7">
       <c r="G59" s="16"/>
     </row>
-    <row r="60" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="7:7">
       <c r="G60" s="16"/>
     </row>
-    <row r="61" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="7:7">
       <c r="G61" s="16"/>
     </row>
-    <row r="62" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="7:7">
       <c r="G62" s="16"/>
     </row>
-    <row r="63" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="7:7">
       <c r="G63" s="16"/>
     </row>
-    <row r="64" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="7:7">
       <c r="G64" s="16"/>
     </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="7:7">
       <c r="G65" s="16"/>
     </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="7:7">
       <c r="G66" s="16"/>
     </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="7:7">
       <c r="G67" s="16"/>
     </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="7:7">
       <c r="G68" s="16"/>
     </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="7:7">
       <c r="G69" s="16"/>
     </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="7:7">
       <c r="G70" s="16"/>
     </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="7:7">
       <c r="G71" s="16"/>
     </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="7:7">
       <c r="G72" s="16"/>
     </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="7:7">
       <c r="G73" s="16"/>
     </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="7:7">
       <c r="G74" s="16"/>
     </row>
-    <row r="75" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="7:7">
       <c r="G75" s="16"/>
     </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="7:7">
       <c r="G76" s="16"/>
     </row>
-    <row r="77" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="7:7">
       <c r="G77" s="16"/>
     </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="7:7">
       <c r="G78" s="16"/>
     </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="7:7">
       <c r="G79" s="16"/>
     </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="7:7">
       <c r="G80" s="16"/>
     </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="7:7">
       <c r="G81" s="16"/>
     </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="7:7">
       <c r="G82" s="16"/>
     </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="7:7">
       <c r="G83" s="16"/>
     </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="7:7">
       <c r="G84" s="16"/>
     </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="7:7">
       <c r="G85" s="16"/>
     </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="7:7">
       <c r="G86" s="16"/>
     </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="7:7">
       <c r="G87" s="16"/>
     </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="7:7">
       <c r="G88" s="16"/>
     </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="7:7">
       <c r="G89" s="16"/>
     </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="7:7">
       <c r="G90" s="16"/>
     </row>
-    <row r="91" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="7:7">
       <c r="G91" s="16"/>
     </row>
-    <row r="92" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="7:7">
       <c r="G92" s="16"/>
     </row>
-    <row r="93" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="7:7">
       <c r="G93" s="16"/>
     </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="7:7">
       <c r="G94" s="16"/>
     </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="7:7">
       <c r="G95" s="16"/>
     </row>
-    <row r="96" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="7:7">
       <c r="G96" s="16"/>
     </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="7:7">
       <c r="G97" s="16"/>
     </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="7:7">
       <c r="G98" s="16"/>
     </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="7:7">
       <c r="G99" s="16"/>
     </row>
-    <row r="100" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="7:7">
       <c r="G100" s="16"/>
     </row>
-    <row r="101" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="7:7">
       <c r="G101" s="16"/>
     </row>
-    <row r="102" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="7:7">
       <c r="G102" s="16"/>
     </row>
-    <row r="103" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="7:7">
       <c r="G103" s="16"/>
     </row>
-    <row r="104" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="7:7">
       <c r="G104" s="16"/>
     </row>
-    <row r="105" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="7:7">
       <c r="G105" s="16"/>
     </row>
-    <row r="106" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="7:7">
       <c r="G106" s="16"/>
     </row>
-    <row r="107" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="7:7">
       <c r="G107" s="16"/>
     </row>
-    <row r="108" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="7:7">
       <c r="G108" s="16"/>
     </row>
-    <row r="109" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="7:7">
       <c r="G109" s="16"/>
     </row>
-    <row r="110" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="7:7">
       <c r="G110" s="16"/>
     </row>
-    <row r="111" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="7:7">
       <c r="G111" s="16"/>
     </row>
-    <row r="112" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="7:7">
       <c r="G112" s="16"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11">
       <c r="G113" s="16"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11">
       <c r="G114" s="16"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11">
       <c r="G115" s="16"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11">
       <c r="G116" s="16"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11">
       <c r="A117" s="17"/>
       <c r="B117" s="17"/>
       <c r="C117" s="17"/>
@@ -1140,24 +1141,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Prj_ERROR404/00_Documents/BangChamCong.xlsx
+++ b/Prj_ERROR404/00_Documents/BangChamCong.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Nội dung</t>
   </si>
@@ -137,6 +137,24 @@
   </si>
   <si>
     <t>17/9/2014</t>
+  </si>
+  <si>
+    <t>*Tổng hợp kiến thức cá nhân mỗi người
+*Kế hoạch tiếp theo</t>
+  </si>
+  <si>
+    <t>Xác nhận mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Tìm hiểu xác nhận mail đăng nhập
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+*Todo: Tìm hiểu về cơ chế sinh link, key để đăng ký acc cho website</t>
+  </si>
+  <si>
+    <t>27/9/2014</t>
   </si>
 </sst>
 </file>
@@ -587,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -828,7 +846,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:11">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -842,28 +860,82 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="21" spans="1:11" ht="30">
+      <c r="A21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="14">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30">
+      <c r="A24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="14"/>
+      <c r="F24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:11">
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:11">
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:11">
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:11">
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:11">
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:11">
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:11">
       <c r="G32" s="16"/>
     </row>
     <row r="33" spans="7:7">
